--- a/Atributy.xlsx
+++ b/Atributy.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="213">
   <si>
     <t>Adresa</t>
   </si>
@@ -158,9 +158,6 @@
     <t>ElektromechanickeZP</t>
   </si>
   <si>
-    <t>id_ElektromechZP           pk</t>
-  </si>
-  <si>
     <t>Robotická ruka</t>
   </si>
   <si>
@@ -356,9 +353,6 @@
     <t>dph</t>
   </si>
   <si>
-    <t>verze_Soft</t>
-  </si>
-  <si>
     <t>id_ZdrSoftware             pk</t>
   </si>
   <si>
@@ -371,9 +365,6 @@
     <t>nvarchar(10)</t>
   </si>
   <si>
-    <t>cena_s_dph</t>
-  </si>
-  <si>
     <t>55000</t>
   </si>
   <si>
@@ -395,12 +386,6 @@
     <t>prijmeni</t>
   </si>
   <si>
-    <t>datum_nar</t>
-  </si>
-  <si>
-    <t>rod_cis</t>
-  </si>
-  <si>
     <t>adresa</t>
   </si>
   <si>
@@ -440,12 +425,6 @@
     <t>Kardiochirurg</t>
   </si>
   <si>
-    <t>datum_podLeku</t>
-  </si>
-  <si>
-    <t>cas_podLeku</t>
-  </si>
-  <si>
     <t>time</t>
   </si>
   <si>
@@ -491,9 +470,6 @@
     <t>dietní</t>
   </si>
   <si>
-    <t>kaloric_hodnota</t>
-  </si>
-  <si>
     <t>101</t>
   </si>
   <si>
@@ -509,9 +485,6 @@
     <t>Na Bořilovce 60</t>
   </si>
   <si>
-    <t>druh_formy</t>
-  </si>
-  <si>
     <t>pevná</t>
   </si>
   <si>
@@ -530,21 +503,9 @@
     <t>cislo</t>
   </si>
   <si>
-    <t>druh_obory</t>
-  </si>
-  <si>
-    <t>cislo_luz</t>
-  </si>
-  <si>
-    <t>max_vaha</t>
-  </si>
-  <si>
     <t>SuperMax 200</t>
   </si>
   <si>
-    <t>dat_spotreby</t>
-  </si>
-  <si>
     <t>2021-12-29</t>
   </si>
   <si>
@@ -557,18 +518,12 @@
     <t>8</t>
   </si>
   <si>
-    <t>pocet_na_sklade</t>
-  </si>
-  <si>
     <t>Respirátor FFP2</t>
   </si>
   <si>
     <t>respirační</t>
   </si>
   <si>
-    <t>cena_kus</t>
-  </si>
-  <si>
     <t>1550</t>
   </si>
   <si>
@@ -608,9 +563,6 @@
     <t>Mikro 20R</t>
   </si>
   <si>
-    <t>počet_kusu</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -656,10 +608,61 @@
     <t>Robotická ruka po využití při operaci, skládá se z 2 částí mezi ktreým je mechanický kloub</t>
   </si>
   <si>
-    <t>popis_vyuz</t>
-  </si>
-  <si>
     <t>110000</t>
+  </si>
+  <si>
+    <t>cenaSdph</t>
+  </si>
+  <si>
+    <t>verzeSoft</t>
+  </si>
+  <si>
+    <t>cenaKus</t>
+  </si>
+  <si>
+    <t>pocetNAsklade</t>
+  </si>
+  <si>
+    <t>pocetKusu</t>
+  </si>
+  <si>
+    <t>popisVyuz</t>
+  </si>
+  <si>
+    <t>druhFormy</t>
+  </si>
+  <si>
+    <t>datSpotreby</t>
+  </si>
+  <si>
+    <t>kaloricHodnota</t>
+  </si>
+  <si>
+    <t>datumNar</t>
+  </si>
+  <si>
+    <t>rodCis</t>
+  </si>
+  <si>
+    <t>id_ElektroMechZP           pk</t>
+  </si>
+  <si>
+    <t>druhOboru</t>
+  </si>
+  <si>
+    <t>cisloLuz</t>
+  </si>
+  <si>
+    <t>maxVaha</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nepovine pole</t>
+  </si>
+  <si>
+    <t>datumPodLeku</t>
+  </si>
+  <si>
+    <t>casPodLeku</t>
   </si>
 </sst>
 </file>
@@ -1123,8 +1126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E244"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E125" sqref="E125"/>
+    <sheetView tabSelected="1" topLeftCell="A222" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E234" sqref="E234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1186,7 +1189,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>2</v>
@@ -1200,7 +1203,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>5</v>
@@ -1214,13 +1217,13 @@
     </row>
     <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D7" s="16" t="s">
         <v>6</v>
@@ -1262,7 +1265,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>2</v>
@@ -1276,7 +1279,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B12" s="17" t="s">
         <v>22</v>
@@ -1285,7 +1288,7 @@
         <v>3</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1324,7 +1327,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>5</v>
@@ -1338,7 +1341,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>22</v>
@@ -1352,7 +1355,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>20</v>
@@ -1366,10 +1369,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>3</v>
@@ -1380,7 +1383,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>115</v>
+        <v>195</v>
       </c>
       <c r="B20" s="17" t="s">
         <v>20</v>
@@ -1389,12 +1392,12 @@
         <v>3</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>110</v>
+        <v>196</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>23</v>
@@ -1470,7 +1473,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>22</v>
@@ -1484,21 +1487,21 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="C28" s="17" t="s">
         <v>3</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="B29" s="12" t="s">
         <v>20</v>
@@ -1512,10 +1515,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C30" s="12" t="s">
         <v>3</v>
@@ -1526,7 +1529,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>115</v>
+        <v>195</v>
       </c>
       <c r="B31" s="17" t="s">
         <v>20</v>
@@ -1535,12 +1538,12 @@
         <v>3</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="B32" s="17" t="s">
         <v>5</v>
@@ -1549,13 +1552,13 @@
         <v>3</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="E32" s="17"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="B33" s="12" t="s">
         <v>21</v>
@@ -1617,7 +1620,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B38" s="12" t="s">
         <v>22</v>
@@ -1626,12 +1629,12 @@
         <v>3</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B39" s="17" t="s">
         <v>2</v>
@@ -1640,12 +1643,12 @@
         <v>3</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="B40" s="12" t="s">
         <v>20</v>
@@ -1659,10 +1662,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C41" s="12" t="s">
         <v>3</v>
@@ -1673,7 +1676,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>115</v>
+        <v>195</v>
       </c>
       <c r="B42" s="17" t="s">
         <v>20</v>
@@ -1682,12 +1685,12 @@
         <v>3</v>
       </c>
       <c r="D42" s="22" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="B43" s="17" t="s">
         <v>5</v>
@@ -1696,12 +1699,12 @@
         <v>3</v>
       </c>
       <c r="D43" s="22" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="B44" s="12" t="s">
         <v>21</v>
@@ -1763,7 +1766,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B49" s="17" t="s">
         <v>2</v>
@@ -1772,12 +1775,12 @@
         <v>3</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B50" s="12" t="s">
         <v>22</v>
@@ -1791,7 +1794,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="B51" s="17" t="s">
         <v>5</v>
@@ -1800,12 +1803,12 @@
         <v>3</v>
       </c>
       <c r="D51" s="22" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B52" s="12" t="s">
         <v>21</v>
@@ -1867,7 +1870,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B57" s="17" t="s">
         <v>2</v>
@@ -1876,12 +1879,12 @@
         <v>3</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B58" s="12" t="s">
         <v>22</v>
@@ -1890,12 +1893,12 @@
         <v>3</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="B59" s="12" t="s">
         <v>20</v>
@@ -1909,10 +1912,10 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C60" s="12" t="s">
         <v>3</v>
@@ -1923,7 +1926,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>115</v>
+        <v>195</v>
       </c>
       <c r="B61" s="17" t="s">
         <v>20</v>
@@ -1932,12 +1935,12 @@
         <v>3</v>
       </c>
       <c r="D61" s="22" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="B62" s="17" t="s">
         <v>5</v>
@@ -1946,12 +1949,12 @@
         <v>3</v>
       </c>
       <c r="D62" s="22" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>117</v>
+        <v>169</v>
       </c>
       <c r="B63" s="12" t="s">
         <v>21</v>
@@ -2013,7 +2016,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B68" s="17" t="s">
         <v>22</v>
@@ -2022,12 +2025,12 @@
         <v>3</v>
       </c>
       <c r="D68" s="13" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B69" s="12" t="s">
         <v>22</v>
@@ -2036,12 +2039,12 @@
         <v>3</v>
       </c>
       <c r="D69" s="13" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="B70" s="17" t="s">
         <v>21</v>
@@ -2050,12 +2053,12 @@
         <v>3</v>
       </c>
       <c r="D70" s="13" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="B71" s="12" t="s">
         <v>20</v>
@@ -2069,10 +2072,10 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C72" s="12" t="s">
         <v>3</v>
@@ -2083,7 +2086,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>115</v>
+        <v>195</v>
       </c>
       <c r="B73" s="17" t="s">
         <v>20</v>
@@ -2092,12 +2095,12 @@
         <v>3</v>
       </c>
       <c r="D73" s="22" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="B74" s="17" t="s">
         <v>5</v>
@@ -2106,12 +2109,12 @@
         <v>3</v>
       </c>
       <c r="D74" s="22" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B75" s="12" t="s">
         <v>21</v>
@@ -2120,7 +2123,7 @@
         <v>18</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2173,21 +2176,21 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B80" s="17" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="C80" s="17" t="s">
         <v>3</v>
       </c>
       <c r="D80" s="13" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B81" s="12" t="s">
         <v>22</v>
@@ -2196,12 +2199,12 @@
         <v>3</v>
       </c>
       <c r="D81" s="13" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="B82" s="12" t="s">
         <v>20</v>
@@ -2215,10 +2218,10 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C83" s="12" t="s">
         <v>3</v>
@@ -2229,7 +2232,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>115</v>
+        <v>195</v>
       </c>
       <c r="B84" s="17" t="s">
         <v>20</v>
@@ -2238,12 +2241,12 @@
         <v>3</v>
       </c>
       <c r="D84" s="22" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="B85" s="17" t="s">
         <v>5</v>
@@ -2252,12 +2255,12 @@
         <v>3</v>
       </c>
       <c r="D85" s="22" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B86" s="12" t="s">
         <v>21</v>
@@ -2319,7 +2322,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="B91" s="17" t="s">
         <v>22</v>
@@ -2328,12 +2331,12 @@
         <v>3</v>
       </c>
       <c r="D91" s="13" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B92" s="12" t="s">
         <v>22</v>
@@ -2342,12 +2345,12 @@
         <v>3</v>
       </c>
       <c r="D92" s="13" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="B93" s="12" t="s">
         <v>20</v>
@@ -2361,10 +2364,10 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C94" s="12" t="s">
         <v>3</v>
@@ -2375,7 +2378,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>115</v>
+        <v>195</v>
       </c>
       <c r="B95" s="17" t="s">
         <v>20</v>
@@ -2384,12 +2387,12 @@
         <v>3</v>
       </c>
       <c r="D95" s="22" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="B96" s="17" t="s">
         <v>5</v>
@@ -2398,12 +2401,12 @@
         <v>3</v>
       </c>
       <c r="D96" s="22" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B97" s="12" t="s">
         <v>21</v>
@@ -2451,7 +2454,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
-        <v>44</v>
+        <v>206</v>
       </c>
       <c r="B101" s="12" t="s">
         <v>5</v>
@@ -2465,7 +2468,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B102" s="12" t="s">
         <v>22</v>
@@ -2474,12 +2477,12 @@
         <v>3</v>
       </c>
       <c r="D102" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="B103" s="17" t="s">
         <v>21</v>
@@ -2488,12 +2491,12 @@
         <v>3</v>
       </c>
       <c r="D103" s="13" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="B104" s="12" t="s">
         <v>20</v>
@@ -2507,10 +2510,10 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C105" s="12" t="s">
         <v>3</v>
@@ -2521,7 +2524,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>115</v>
+        <v>195</v>
       </c>
       <c r="B106" s="17" t="s">
         <v>20</v>
@@ -2530,12 +2533,12 @@
         <v>3</v>
       </c>
       <c r="D106" s="22" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="B107" s="17" t="s">
         <v>5</v>
@@ -2544,12 +2547,12 @@
         <v>3</v>
       </c>
       <c r="D107" s="22" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B108" s="12" t="s">
         <v>21</v>
@@ -2583,7 +2586,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B111" s="10" t="s">
         <v>12</v>
@@ -2597,7 +2600,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B112" s="12" t="s">
         <v>5</v>
@@ -2611,7 +2614,7 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B113" s="12" t="s">
         <v>22</v>
@@ -2620,12 +2623,12 @@
         <v>3</v>
       </c>
       <c r="D113" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>168</v>
+        <v>207</v>
       </c>
       <c r="B114" s="12" t="s">
         <v>22</v>
@@ -2634,12 +2637,12 @@
         <v>3</v>
       </c>
       <c r="D114" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="18" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B115" s="15" t="s">
         <v>21</v>
@@ -2659,7 +2662,7 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B117" s="10" t="s">
         <v>12</v>
@@ -2674,7 +2677,7 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B118" s="12" t="s">
         <v>5</v>
@@ -2688,7 +2691,7 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="B119" s="12" t="s">
         <v>5</v>
@@ -2702,7 +2705,7 @@
     </row>
     <row r="120" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B120" s="15" t="s">
         <v>5</v>
@@ -2722,7 +2725,7 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B122" s="10" t="s">
         <v>12</v>
@@ -2736,7 +2739,7 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B123" s="17" t="s">
         <v>5</v>
@@ -2750,7 +2753,7 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B124" s="12" t="s">
         <v>22</v>
@@ -2759,12 +2762,12 @@
         <v>3</v>
       </c>
       <c r="D124" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="18" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B125" s="15" t="s">
         <v>22</v>
@@ -2773,7 +2776,7 @@
         <v>3</v>
       </c>
       <c r="D125" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2784,7 +2787,7 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B127" s="10" t="s">
         <v>12</v>
@@ -2798,7 +2801,7 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B128" s="12" t="s">
         <v>5</v>
@@ -2812,7 +2815,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B129" s="17" t="s">
         <v>22</v>
@@ -2821,12 +2824,12 @@
         <v>3</v>
       </c>
       <c r="D129" s="13" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>169</v>
+        <v>208</v>
       </c>
       <c r="B130" s="17" t="s">
         <v>5</v>
@@ -2840,7 +2843,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>170</v>
+        <v>209</v>
       </c>
       <c r="B131" s="17" t="s">
         <v>5</v>
@@ -2854,13 +2857,13 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B132" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C132" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D132" s="13">
         <v>1</v>
@@ -2868,7 +2871,7 @@
     </row>
     <row r="133" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B133" s="15" t="s">
         <v>5</v>
@@ -2888,7 +2891,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B135" s="10" t="s">
         <v>12</v>
@@ -2902,7 +2905,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B136" s="12" t="s">
         <v>5</v>
@@ -2916,7 +2919,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B137" s="17" t="s">
         <v>2</v>
@@ -2925,12 +2928,12 @@
         <v>3</v>
       </c>
       <c r="D137" s="13" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="18" t="s">
-        <v>161</v>
+        <v>201</v>
       </c>
       <c r="B138" s="15" t="s">
         <v>2</v>
@@ -2939,7 +2942,7 @@
         <v>3</v>
       </c>
       <c r="D138" s="16" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2950,7 +2953,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B140" s="10" t="s">
         <v>12</v>
@@ -2964,7 +2967,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B141" s="12" t="s">
         <v>5</v>
@@ -2978,7 +2981,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B142" s="12" t="s">
         <v>2</v>
@@ -2987,12 +2990,12 @@
         <v>3</v>
       </c>
       <c r="D142" s="13" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B143" s="15" t="s">
         <v>2</v>
@@ -3001,7 +3004,7 @@
         <v>3</v>
       </c>
       <c r="D143" s="16" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3012,7 +3015,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B145" s="10" t="s">
         <v>12</v>
@@ -3026,7 +3029,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B146" s="12" t="s">
         <v>5</v>
@@ -3040,7 +3043,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B147" s="12" t="s">
         <v>2</v>
@@ -3049,40 +3052,40 @@
         <v>3</v>
       </c>
       <c r="D147" s="13" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B148" s="17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C148" s="17" t="s">
         <v>3</v>
       </c>
       <c r="D148" s="13" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>172</v>
+        <v>202</v>
       </c>
       <c r="B149" s="17" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C149" s="17" t="s">
         <v>3</v>
       </c>
       <c r="D149" s="19" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="B150" s="17" t="s">
         <v>21</v>
@@ -3091,12 +3094,12 @@
         <v>3</v>
       </c>
       <c r="D150" s="19" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B151" s="12" t="s">
         <v>20</v>
@@ -3110,10 +3113,10 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B152" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C152" s="12" t="s">
         <v>3</v>
@@ -3124,7 +3127,7 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>115</v>
+        <v>195</v>
       </c>
       <c r="B153" s="17" t="s">
         <v>20</v>
@@ -3133,12 +3136,12 @@
         <v>3</v>
       </c>
       <c r="D153" s="22" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="B154" s="17" t="s">
         <v>5</v>
@@ -3147,12 +3150,12 @@
         <v>3</v>
       </c>
       <c r="D154" s="22" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B155" s="12" t="s">
         <v>5</v>
@@ -3166,7 +3169,7 @@
     </row>
     <row r="156" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B156" s="15" t="s">
         <v>5</v>
@@ -3186,7 +3189,7 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B158" s="10" t="s">
         <v>12</v>
@@ -3200,7 +3203,7 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B159" s="12" t="s">
         <v>5</v>
@@ -3214,7 +3217,7 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B160" s="17" t="s">
         <v>5</v>
@@ -3228,7 +3231,7 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B161" s="17" t="s">
         <v>22</v>
@@ -3237,12 +3240,12 @@
         <v>3</v>
       </c>
       <c r="D161" s="13" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>155</v>
+        <v>203</v>
       </c>
       <c r="B162" s="17" t="s">
         <v>5</v>
@@ -3256,7 +3259,7 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B163" s="12" t="s">
         <v>20</v>
@@ -3270,21 +3273,21 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B164" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C164" s="12" t="s">
         <v>3</v>
       </c>
       <c r="D164" s="21">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>115</v>
+        <v>195</v>
       </c>
       <c r="B165" s="17" t="s">
         <v>20</v>
@@ -3293,12 +3296,12 @@
         <v>3</v>
       </c>
       <c r="D165" s="22" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="18" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B166" s="15" t="s">
         <v>21</v>
@@ -3307,7 +3310,7 @@
         <v>3</v>
       </c>
       <c r="D166" s="16" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3318,7 +3321,7 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B168" s="10" t="s">
         <v>12</v>
@@ -3332,7 +3335,7 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B169" s="12" t="s">
         <v>5</v>
@@ -3346,7 +3349,7 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B170" s="17" t="s">
         <v>5</v>
@@ -3360,7 +3363,7 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B171" s="17" t="s">
         <v>22</v>
@@ -3369,12 +3372,12 @@
         <v>3</v>
       </c>
       <c r="D171" s="13" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>155</v>
+        <v>203</v>
       </c>
       <c r="B172" s="17" t="s">
         <v>5</v>
@@ -3388,7 +3391,7 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B173" s="12" t="s">
         <v>20</v>
@@ -3402,21 +3405,21 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B174" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C174" s="12" t="s">
         <v>3</v>
       </c>
       <c r="D174" s="21">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>115</v>
+        <v>195</v>
       </c>
       <c r="B175" s="17" t="s">
         <v>20</v>
@@ -3425,12 +3428,12 @@
         <v>3</v>
       </c>
       <c r="D175" s="22" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="176" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="18" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B176" s="15" t="s">
         <v>21</v>
@@ -3439,7 +3442,7 @@
         <v>3</v>
       </c>
       <c r="D176" s="16" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="177" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3450,7 +3453,7 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B178" s="10" t="s">
         <v>12</v>
@@ -3464,7 +3467,7 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B179" s="12" t="s">
         <v>5</v>
@@ -3478,7 +3481,7 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B180" s="17" t="s">
         <v>5</v>
@@ -3492,7 +3495,7 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B181" s="17" t="s">
         <v>22</v>
@@ -3501,12 +3504,12 @@
         <v>3</v>
       </c>
       <c r="D181" s="13" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>155</v>
+        <v>203</v>
       </c>
       <c r="B182" s="17" t="s">
         <v>5</v>
@@ -3520,7 +3523,7 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B183" s="12" t="s">
         <v>20</v>
@@ -3534,21 +3537,21 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B184" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C184" s="12" t="s">
         <v>3</v>
       </c>
       <c r="D184" s="21">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>115</v>
+        <v>195</v>
       </c>
       <c r="B185" s="17" t="s">
         <v>20</v>
@@ -3557,12 +3560,12 @@
         <v>3</v>
       </c>
       <c r="D185" s="22" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="186" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="18" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B186" s="15" t="s">
         <v>21</v>
@@ -3571,7 +3574,7 @@
         <v>3</v>
       </c>
       <c r="D186" s="16" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="187" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3582,7 +3585,7 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B188" s="10" t="s">
         <v>12</v>
@@ -3596,7 +3599,7 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B189" s="12" t="s">
         <v>5</v>
@@ -3610,106 +3613,109 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B190" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C190" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D190" s="13" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B191" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C191" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D191" s="13" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>123</v>
+        <v>204</v>
       </c>
       <c r="B192" s="17" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C192" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D192" s="23" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>124</v>
+        <v>205</v>
       </c>
       <c r="B193" s="17" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C193" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D193" s="13" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B194" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C194" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D194" s="13" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B195" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C195" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D195" s="13" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B196" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C196" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D196" s="13">
+        <v>1</v>
+      </c>
+      <c r="E196" s="17" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="B196" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C196" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D196" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="18" t="s">
-        <v>79</v>
-      </c>
       <c r="B197" s="15" t="s">
         <v>5</v>
       </c>
@@ -3720,100 +3726,100 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="8"/>
       <c r="B198" s="8"/>
       <c r="C198" s="8"/>
       <c r="D198" s="8"/>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B199" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C199" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D199" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B199" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C199" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D199" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" s="1" t="s">
+      <c r="B200" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C200" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D200" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B201" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="C201" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D201" s="23" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B200" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C200" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D200" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B201" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="C201" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="D201" s="23" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202" s="1" t="s">
+      <c r="B202" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C202" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D202" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B202" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C202" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D202" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A203" s="1" t="s">
+      <c r="B203" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C203" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D203" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B203" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C203" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D203" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A204" s="1" t="s">
+      <c r="B204" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C204" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D204" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A205" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="B204" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C204" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D204" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="18" t="s">
-        <v>85</v>
-      </c>
       <c r="B205" s="15" t="s">
         <v>5</v>
       </c>
@@ -3824,29 +3830,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="8"/>
       <c r="B206" s="8"/>
       <c r="C206" s="8"/>
       <c r="D206" s="8"/>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B207" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C207" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D207" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="B207" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C207" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D207" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A208" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="B208" s="12" t="s">
         <v>5</v>
@@ -3860,35 +3866,35 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>138</v>
+        <v>211</v>
       </c>
       <c r="B209" s="17" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C209" s="17" t="s">
         <v>3</v>
       </c>
       <c r="D209" s="23" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>139</v>
+        <v>212</v>
       </c>
       <c r="B210" s="17" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C210" s="17" t="s">
         <v>3</v>
       </c>
       <c r="D210" s="23" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B211" s="12" t="s">
         <v>5</v>
@@ -3902,7 +3908,7 @@
     </row>
     <row r="212" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B212" s="15" t="s">
         <v>5</v>
@@ -3922,7 +3928,7 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B214" s="10" t="s">
         <v>12</v>
@@ -3936,13 +3942,13 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B215" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C215" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D215" s="13">
         <v>1</v>
@@ -3950,97 +3956,97 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B216" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C216" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D216" s="13" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B217" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C217" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D217" s="13" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>123</v>
+        <v>204</v>
       </c>
       <c r="B218" s="17" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C218" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D218" s="23" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>124</v>
+        <v>205</v>
       </c>
       <c r="B219" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C219" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D219" s="13" t="s">
         <v>130</v>
-      </c>
-      <c r="C219" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="D219" s="13" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B220" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C220" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D220" s="13" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B221" s="17" t="s">
         <v>22</v>
       </c>
       <c r="C221" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D221" s="13" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="222" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B222" s="15" t="s">
         <v>5</v>
       </c>
       <c r="C222" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D222" s="16">
         <v>1</v>
@@ -4054,7 +4060,7 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B224" s="10" t="s">
         <v>12</v>
@@ -4068,13 +4074,13 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B225" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C225" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D225" s="13">
         <v>1</v>
@@ -4082,83 +4088,83 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B226" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C226" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D226" s="13" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B227" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C227" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D227" s="13" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B228" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="C228" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D228" s="23" t="s">
         <v>123</v>
-      </c>
-      <c r="B228" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="C228" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="D228" s="23" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B229" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C229" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D229" s="13" t="s">
         <v>124</v>
-      </c>
-      <c r="B229" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="C229" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="D229" s="13" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B230" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C230" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D230" s="13" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="231" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B231" s="15" t="s">
         <v>5</v>
       </c>
       <c r="C231" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D231" s="16">
         <v>1</v>
@@ -4172,7 +4178,7 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B233" s="10" t="s">
         <v>12</v>
@@ -4186,7 +4192,7 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B234" s="12" t="s">
         <v>5</v>
@@ -4200,21 +4206,21 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B235" s="17" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C235" s="17" t="s">
         <v>3</v>
       </c>
       <c r="D235" s="19" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B236" s="12" t="s">
         <v>5</v>
@@ -4228,7 +4234,7 @@
     </row>
     <row r="237" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A237" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B237" s="15" t="s">
         <v>5</v>
@@ -4248,7 +4254,7 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B239" s="10" t="s">
         <v>12</v>
@@ -4262,7 +4268,7 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B240" s="12" t="s">
         <v>5</v>
@@ -4276,21 +4282,21 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B241" s="17" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C241" s="17" t="s">
         <v>3</v>
       </c>
       <c r="D241" s="19" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B242" s="12" t="s">
         <v>5</v>
@@ -4304,7 +4310,7 @@
     </row>
     <row r="243" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A243" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B243" s="15" t="s">
         <v>5</v>
